--- a/teaching/traditional_assets/database/data/estonia/estonia_apparel.xlsx
+++ b/teaching/traditional_assets/database/data/estonia/estonia_apparel.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0525</v>
+        <v>-0.098</v>
       </c>
       <c r="G2">
-        <v>-0.0556043956043956</v>
+        <v>-0.09304635761589404</v>
       </c>
       <c r="H2">
-        <v>-0.0556043956043956</v>
+        <v>-0.09304635761589404</v>
       </c>
       <c r="I2">
-        <v>-0.01834716066959682</v>
+        <v>-0.2059602649006622</v>
       </c>
       <c r="J2">
-        <v>-0.01834716066959682</v>
+        <v>-0.2059602649006622</v>
       </c>
       <c r="K2">
-        <v>-7.36</v>
+        <v>-1.92</v>
       </c>
       <c r="L2">
-        <v>-0.1617582417582418</v>
+        <v>-0.06357615894039735</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.22</v>
+        <v>1.27</v>
       </c>
       <c r="V2">
-        <v>0.02686202686202686</v>
+        <v>0.04686346863468634</v>
       </c>
       <c r="W2">
-        <v>-1.799511002444988</v>
+        <v>-0.9948186528497409</v>
       </c>
       <c r="X2">
-        <v>0.2285199220899357</v>
+        <v>0.07951240380985054</v>
       </c>
       <c r="Y2">
-        <v>-2.028030924534924</v>
+        <v>-1.074331056659591</v>
       </c>
       <c r="Z2">
-        <v>1.535658718433529</v>
+        <v>1.080810249803164</v>
       </c>
       <c r="AA2">
-        <v>-0.0281749772407671</v>
+        <v>-0.2226039653568105</v>
       </c>
       <c r="AB2">
-        <v>0.06687424537962645</v>
+        <v>0.05953923903556256</v>
       </c>
       <c r="AC2">
-        <v>-0.09504922262039356</v>
+        <v>-0.2821432043923731</v>
       </c>
       <c r="AD2">
-        <v>26.4</v>
+        <v>17.7</v>
       </c>
       <c r="AE2">
-        <v>15.27397905233327</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>41.67397905233327</v>
+        <v>17.7</v>
       </c>
       <c r="AG2">
-        <v>41.45397905233327</v>
+        <v>16.43</v>
       </c>
       <c r="AH2">
-        <v>0.8357531798374048</v>
+        <v>0.3950892857142857</v>
       </c>
       <c r="AI2">
-        <v>0.9557379844237696</v>
+        <v>0.9404888416578108</v>
       </c>
       <c r="AJ2">
-        <v>0.8350253110983241</v>
+        <v>0.3774408453939812</v>
       </c>
       <c r="AK2">
-        <v>0.9555135319037501</v>
+        <v>0.9361823361823362</v>
       </c>
       <c r="AL2">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="AM2">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="AN2">
-        <v>8.098159509202453</v>
+        <v>-3.094405594405595</v>
       </c>
       <c r="AO2">
-        <v>-3.481203007518797</v>
+        <v>-5.553571428571428</v>
       </c>
       <c r="AP2">
-        <v>12.71594449458076</v>
+        <v>-2.872377622377623</v>
       </c>
       <c r="AQ2">
-        <v>-3.481203007518797</v>
+        <v>-5.553571428571428</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0525</v>
+        <v>-0.098</v>
       </c>
       <c r="G3">
-        <v>-0.0556043956043956</v>
+        <v>-0.09304635761589404</v>
       </c>
       <c r="H3">
-        <v>-0.0556043956043956</v>
+        <v>-0.09304635761589404</v>
       </c>
       <c r="I3">
-        <v>-0.01834716066959682</v>
+        <v>-0.2059602649006622</v>
       </c>
       <c r="J3">
-        <v>-0.01834716066959682</v>
+        <v>-0.2059602649006622</v>
       </c>
       <c r="K3">
-        <v>-7.36</v>
+        <v>-1.92</v>
       </c>
       <c r="L3">
-        <v>-0.1617582417582418</v>
+        <v>-0.06357615894039735</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.22</v>
+        <v>1.27</v>
       </c>
       <c r="V3">
-        <v>0.02686202686202686</v>
+        <v>0.04686346863468634</v>
       </c>
       <c r="W3">
-        <v>-1.799511002444988</v>
+        <v>-0.9948186528497409</v>
       </c>
       <c r="X3">
-        <v>0.2285199220899357</v>
+        <v>0.07951240380985054</v>
       </c>
       <c r="Y3">
-        <v>-2.028030924534924</v>
+        <v>-1.074331056659591</v>
       </c>
       <c r="Z3">
-        <v>1.535658718433529</v>
+        <v>1.080810249803164</v>
       </c>
       <c r="AA3">
-        <v>-0.0281749772407671</v>
+        <v>-0.2226039653568105</v>
       </c>
       <c r="AB3">
-        <v>0.06687424537962645</v>
+        <v>0.05953923903556256</v>
       </c>
       <c r="AC3">
-        <v>-0.09504922262039356</v>
+        <v>-0.2821432043923731</v>
       </c>
       <c r="AD3">
-        <v>26.4</v>
+        <v>17.7</v>
       </c>
       <c r="AE3">
-        <v>15.27397905233327</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>41.67397905233327</v>
+        <v>17.7</v>
       </c>
       <c r="AG3">
-        <v>41.45397905233327</v>
+        <v>16.43</v>
       </c>
       <c r="AH3">
-        <v>0.8357531798374048</v>
+        <v>0.3950892857142857</v>
       </c>
       <c r="AI3">
-        <v>0.9557379844237696</v>
+        <v>0.9404888416578108</v>
       </c>
       <c r="AJ3">
-        <v>0.8350253110983241</v>
+        <v>0.3774408453939812</v>
       </c>
       <c r="AK3">
-        <v>0.9555135319037501</v>
+        <v>0.9361823361823362</v>
       </c>
       <c r="AL3">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="AM3">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="AN3">
-        <v>8.098159509202453</v>
+        <v>-3.094405594405595</v>
       </c>
       <c r="AO3">
-        <v>-3.481203007518797</v>
+        <v>-5.553571428571428</v>
       </c>
       <c r="AP3">
-        <v>12.71594449458076</v>
+        <v>-2.872377622377623</v>
       </c>
       <c r="AQ3">
-        <v>-3.481203007518797</v>
+        <v>-5.553571428571428</v>
       </c>
     </row>
   </sheetData>
